--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2084213.141778185</v>
+        <v>-2087247.473855039</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.78185899</v>
+        <v>8656875.781858996</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>137.5004243085498</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>257.7679198008237</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.5603804390637</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>117.3776555795995</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>360.8443480956393</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>281.8554039088139</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1057,13 +1057,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>50.13027643502261</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>174.9442930587128</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>76.74133820032895</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>81.63302162935811</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>134.0618870358387</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590269</v>
+        <v>103.1340411809968</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,19 +1582,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>149.2419515106231</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.12224013931796</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292607</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492269</v>
+        <v>76.94242247934774</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292618</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247755</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734100478</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>161.6426651386088</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>270.3808622796216</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.3165365479897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2956,19 +2956,19 @@
         <v>124.3308255261728</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308917</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002294</v>
+        <v>141.2394908002293</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541843</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652518</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.741638509605</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352487</v>
+        <v>193.1208028352488</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972046</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261728</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308917</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.741638509605</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352487</v>
+        <v>193.1208028352488</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972047</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317885</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T35" t="n">
         <v>199.022230457616</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545297</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002294</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541843</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652592</v>
+        <v>56.98118882652591</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.741638509605</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898978</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065883</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002293</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.741638509605</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352488</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317885</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445515</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969976</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600553</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898978</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065884</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261729</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002294</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652591</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.741638509605</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352488</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972047</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317885</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445515</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969977</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600553</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>885.7444020895362</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="D2" t="n">
-        <v>885.7444020895362</v>
+        <v>1502.442708164076</v>
       </c>
       <c r="E2" t="n">
-        <v>885.7444020895362</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>885.7444020895362</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>467.780593987723</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X4" t="n">
-        <v>320.3920853967602</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>843.3415311720269</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>843.3415311720269</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>843.3415311720269</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2081.383775483931</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1707.918017222851</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236149</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447962</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>150.2361491168893</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1757.312204670903</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C8" t="n">
-        <v>1388.349687730491</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D8" t="n">
-        <v>1030.083989123741</v>
+        <v>561.3098882767933</v>
       </c>
       <c r="E8" t="n">
-        <v>1030.083989123741</v>
+        <v>561.3098882767933</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>150.3239834871858</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>136.4005794257767</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>136.4005794257767</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646714</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.451536646714</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1757.312204670903</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4887,37 +4887,37 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -5005,7 +5005,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5018,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320235</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458017</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301103</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177746</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353815</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374711</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1302.311063288257</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1302.311063288257</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.311063288257</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X13" t="n">
-        <v>1302.311063288257</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288257</v>
+        <v>550.3214813792652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468568</v>
@@ -5355,19 +5355,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,13 +5394,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000672</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000672</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000672</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000672</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000672</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000672</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,16 +5437,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718544</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>613.633048673837</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>392.8404695303069</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277727</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.60335981148</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483404</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542186</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,19 +5592,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454342</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.51300886223</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384226</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783395</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413789</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433616</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998315</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277724</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563071</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622693</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294617</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353398</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232734</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5814,37 +5814,37 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919358</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320226</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454343</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008797</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902953</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931527</v>
+        <v>1793.068046772776</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501053</v>
+        <v>1793.068046772776</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626696</v>
+        <v>1793.068046772776</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208094</v>
+        <v>1793.068046772776</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1503.650876735815</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>1275.661325837798</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>1054.868746694268</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,13 +5972,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551623</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,52 +5987,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,19 +6066,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413794</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>263.2638710736754</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,10 +6227,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6312,10 +6312,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,58 +6358,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.79828551875</v>
@@ -6427,7 +6427,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362685</v>
@@ -6461,28 +6461,28 @@
         <v>95.34095638192635</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111615</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075719</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.61155333238</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014773</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355933</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694718</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852267</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756271</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191932</v>
+        <v>577.3880777468485</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349531</v>
+        <v>1072.713683962608</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349531</v>
+        <v>1072.713683962608</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989561</v>
+        <v>1700.311647517216</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190823</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319336</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656827</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6640,19 +6640,19 @@
         <v>2496.057455973199</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717218</v>
+        <v>2639.297491717217</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931276</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547837</v>
+        <v>2438.456847547836</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532434</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838288</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594057</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6710,7 +6710,7 @@
         <v>2206.558663014785</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355933</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068007</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756271</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191932</v>
+        <v>577.3880777468485</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349531</v>
+        <v>1072.713683962608</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061506</v>
+        <v>1344.266747951535</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061506</v>
+        <v>1344.266747951535</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237709</v>
+        <v>1896.176478190823</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732778</v>
+        <v>2319.799627685892</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107661</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
         <v>151.3734194384021</v>
@@ -6856,19 +6856,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311332</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979288</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656416</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O34" t="n">
         <v>2179.34019938252</v>
@@ -6877,13 +6877,13 @@
         <v>2496.057455973199</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717218</v>
+        <v>2639.297491717217</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931276</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547837</v>
+        <v>2438.456847547836</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532434</v>
@@ -6895,7 +6895,7 @@
         <v>1748.685508594057</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518753</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582391</v>
@@ -6944,16 +6944,16 @@
         <v>1478.611553332391</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014773</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355933</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694718</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,7 +7023,7 @@
         <v>1072.713683962608</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589162</v>
+        <v>1268.578514636215</v>
       </c>
       <c r="N36" t="n">
         <v>1896.176478190823</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319338</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
         <v>151.3734194384021</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311332</v>
+        <v>898.2659412311333</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979288</v>
@@ -7108,7 +7108,7 @@
         <v>1785.769117656416</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.34019938252</v>
+        <v>2179.340199382521</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973199</v>
@@ -7120,10 +7120,10 @@
         <v>2596.781734931276</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547837</v>
+        <v>2438.456847547836</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532434</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838288</v>
@@ -7132,7 +7132,7 @@
         <v>1748.685508594057</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518753</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582391</v>
@@ -7178,19 +7178,19 @@
         <v>852.8523611075832</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.61155333238</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014773</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355933</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694718</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7251,16 +7251,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756271</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191932</v>
+        <v>577.3880777468485</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349531</v>
+        <v>1072.713683962608</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061506</v>
+        <v>1670.092171589162</v>
       </c>
       <c r="N39" t="n">
         <v>1896.176478190823</v>
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319338</v>
+        <v>926.9575315319337</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311332</v>
+        <v>898.2659412311331</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979288</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656416</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382521</v>
+        <v>2179.34019938252</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717218</v>
+        <v>2639.297491717217</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931277</v>
+        <v>2596.781734931276</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547837</v>
+        <v>2438.456847547836</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532434</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838288</v>
@@ -7400,34 +7400,34 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111615</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075719</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333238</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014773</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355933</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7436,7 +7436,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516158</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167376</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793929</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793929</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237709</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732778</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107661</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954155</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380738</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311336</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979288</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656416</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.34019938252</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973199</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717217</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931276</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547837</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532434</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838288</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014785</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694718</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516158</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167376</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167376</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721984</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237709</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732778</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107661</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311332</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979288</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656416</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.34019938252</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973199</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717218</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931276</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547837</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532434</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838288</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518753</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476865</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476913</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-11</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.213606992678251e-11</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-1.148237060988322e-11</v>
       </c>
       <c r="O32" t="n">
-        <v>-1.159605744760484e-11</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-1.148237060988322e-11</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>-1.193711796076968e-11</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-11</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-1.193711796076968e-11</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-1.115648689123049e-11</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-1.152045171728282e-12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-11</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>151.0675979208866</v>
+        <v>244.429945763712</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>66.15485296353341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>35.40945441470153</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>62.89176707803139</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004599</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>136.9698866949898</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23668,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>126.6327747750028</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270146</v>
+        <v>102.8895577025896</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004746</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>28.12636019283309</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>16.14213605696943</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.26811680410505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53560.00146066981</v>
+        <v>53560.00146066979</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="E2" t="n">
-        <v>59562.26803304747</v>
+        <v>59562.26803304748</v>
       </c>
       <c r="F2" t="n">
         <v>59562.26803304748</v>
@@ -26332,28 +26332,28 @@
         <v>59562.26803304748</v>
       </c>
       <c r="I2" t="n">
-        <v>59562.26803304747</v>
+        <v>59562.26803304746</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="M2" t="n">
         <v>61578.1327398212</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.1327398212</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982122</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.026931840897305e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>395954.8515672233</v>
+        <v>395954.8515672232</v>
       </c>
       <c r="K3" t="n">
-        <v>1.6730405150156e-09</v>
+        <v>1.621881438040873e-09</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363039</v>
+        <v>19427.71799363184</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709196</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="K4" t="n">
         <v>12448.50789975139</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.5078997514</v>
+        <v>12448.50789975139</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975137</v>
+        <v>12448.50789975141</v>
       </c>
       <c r="N4" t="n">
         <v>12448.50789975137</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975157</v>
+        <v>12448.5078997514</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975138</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750453.7476534068</v>
+        <v>-750721.0186960453</v>
       </c>
       <c r="C6" t="n">
         <v>-213487.5417160179</v>
@@ -26528,40 +26528,40 @@
         <v>-213487.541716018</v>
       </c>
       <c r="E6" t="n">
-        <v>-785818.2722111647</v>
+        <v>-785885.4677013905</v>
       </c>
       <c r="F6" t="n">
-        <v>-58440.85821775805</v>
+        <v>-58508.05370798379</v>
       </c>
       <c r="G6" t="n">
-        <v>-58440.85821775806</v>
+        <v>-58508.05370798385</v>
       </c>
       <c r="H6" t="n">
-        <v>-58440.85821775739</v>
+        <v>-58508.05370798383</v>
       </c>
       <c r="I6" t="n">
-        <v>-58440.85821775909</v>
+        <v>-58508.05370798385</v>
       </c>
       <c r="J6" t="n">
-        <v>-449989.3425810691</v>
+        <v>-449989.342581069</v>
       </c>
       <c r="K6" t="n">
-        <v>-54034.49101384729</v>
+        <v>-54034.49101384726</v>
       </c>
       <c r="L6" t="n">
         <v>-54034.49101384563</v>
       </c>
       <c r="M6" t="n">
-        <v>-183676.8058527903</v>
+        <v>-183676.8058527904</v>
       </c>
       <c r="N6" t="n">
-        <v>-54034.49101384559</v>
+        <v>-54034.4910138456</v>
       </c>
       <c r="O6" t="n">
-        <v>-73462.20900747612</v>
+        <v>-73462.20900747745</v>
       </c>
       <c r="P6" t="n">
-        <v>-54034.4910138456</v>
+        <v>-54034.49101384537</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203948</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26747,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1367.975500341676</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
     </row>
     <row r="4">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203992</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="K3" t="n">
         <v>2.501110429875553e-12</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.885737130310441e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>230.8627721513752</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>334.3216462637675</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>8.72149380291404</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>108.3319998094376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>21.08602197662248</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>67.38556480859916</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>98.48519658318975</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>50.76536233032434</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>330.1347075413825</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.29829461550314</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>22.1090018059565</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.343281041954469e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203953</v>
+        <v>24.28464749203951</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203948</v>
+        <v>24.28464749203949</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203952</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920395</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233498</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681592</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844661</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003801</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574983</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095012</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099048</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746404</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781683</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563565</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806937</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451118</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752245</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233525</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837916</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970242</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002921</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.5396634623831</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898485</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174201</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085997</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712203</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553031</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112283</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422594</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071799</v>
       </c>
       <c r="O30" t="n">
-        <v>491.5977325265271</v>
+        <v>340.4395077511177</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214708</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422594</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473085</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862134</v>
+        <v>416.4300581532571</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>485.1127032082857</v>
+        <v>700.0808204437255</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214708</v>
@@ -33521,7 +33521,7 @@
         <v>375.5996128485297</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418564</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742448</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473085</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862134</v>
+        <v>339.9772972286916</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496577</v>
+        <v>765.2790490071799</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422594</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862134</v>
       </c>
       <c r="N39" t="n">
-        <v>510.8679233250672</v>
+        <v>359.7096985496577</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M42" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321014</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214708</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485297</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418564</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M45" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071799</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724498</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214708</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485297</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418564</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407861</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265649</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923317</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302262</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359052</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.560694390854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636239</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152071</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013314</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407858</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265643</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400224</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302256</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129103</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882181</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908535</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636235</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152068</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597679</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609562</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013341</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004583</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525798</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859618</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306603</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.3942385378934</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317654</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396428</v>
+        <v>285.7087110396315</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367782</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924738</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902289</v>
+        <v>129.866084390241</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496679004</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238466</v>
       </c>
       <c r="O30" t="n">
-        <v>349.0014880820827</v>
+        <v>197.8432633066733</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071406</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980856</v>
       </c>
       <c r="P31" t="n">
-        <v>319.916420798665</v>
+        <v>319.9164207986649</v>
       </c>
       <c r="Q31" t="n">
         <v>144.6869047919382</v>
@@ -37078,10 +37078,10 @@
         <v>735.3001107902966</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193419</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243061</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683827</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496679004</v>
@@ -37154,13 +37154,13 @@
         <v>500.3288951674343</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641952</v>
+        <v>274.2960242312388</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>342.5164587638412</v>
+        <v>557.4845759992811</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071406</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625082</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789242</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>450.5570744930853</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819476</v>
+        <v>445.9107804819477</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980856</v>
       </c>
       <c r="P34" t="n">
-        <v>319.916420798665</v>
+        <v>319.9164207986649</v>
       </c>
       <c r="Q34" t="n">
         <v>144.6869047919382</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462703</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902851</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193534</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683827</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924618</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R35" t="n">
         <v>129.866084390241</v>
@@ -37391,10 +37391,10 @@
         <v>500.3288951674343</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641952</v>
+        <v>197.8432633066733</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663244</v>
+        <v>633.9373369238466</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.4543240367782</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462703</v>
+        <v>632.079992146259</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902966</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683827</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924618</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R38" t="n">
         <v>129.866084390241</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496679004</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641952</v>
       </c>
       <c r="N39" t="n">
-        <v>379.5262112417338</v>
+        <v>228.3679864663244</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396315</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390241</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071406</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625082</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789242</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.617235901675</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111716</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930853</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819477</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980856</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.916420798665</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924618</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390241</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M45" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238466</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280053</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071406</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625082</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789242</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.617235901675</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111716</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930853</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819476</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980855</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986649</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
